--- a/group-reports/tables/sharif-results-test-1.xlsx
+++ b/group-reports/tables/sharif-results-test-1.xlsx
@@ -579,7 +579,7 @@
       </c>
       <c r="O2" s="1" t="inlineStr">
         <is>
-          <t>Utility</t>
+          <t>Utility (Percent)</t>
         </is>
       </c>
     </row>
@@ -626,17 +626,17 @@
       </c>
       <c r="I3" s="1" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>28 msec</t>
         </is>
       </c>
       <c r="J3" s="1" t="inlineStr">
         <is>
-          <t>927</t>
+          <t>927 msec</t>
         </is>
       </c>
       <c r="K3" s="1" t="inlineStr">
         <is>
-          <t>82.37</t>
+          <t>82.37 msec</t>
         </is>
       </c>
       <c r="L3" s="1" t="inlineStr">
@@ -703,17 +703,17 @@
       </c>
       <c r="I4" s="1" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>28 msec</t>
         </is>
       </c>
       <c r="J4" s="1" t="inlineStr">
         <is>
-          <t>987</t>
+          <t>987 msec</t>
         </is>
       </c>
       <c r="K4" s="1" t="inlineStr">
         <is>
-          <t>81.82</t>
+          <t>81.82 msec</t>
         </is>
       </c>
       <c r="L4" s="1" t="inlineStr">
@@ -780,17 +780,17 @@
       </c>
       <c r="I5" s="1" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>10 msec</t>
         </is>
       </c>
       <c r="J5" s="1" t="inlineStr">
         <is>
-          <t>999</t>
+          <t>999 msec</t>
         </is>
       </c>
       <c r="K5" s="1" t="inlineStr">
         <is>
-          <t>84.16</t>
+          <t>84.16 msec</t>
         </is>
       </c>
       <c r="L5" s="1" t="inlineStr">
@@ -857,17 +857,17 @@
       </c>
       <c r="I6" s="1" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>12 msec</t>
         </is>
       </c>
       <c r="J6" s="1" t="inlineStr">
         <is>
-          <t>558</t>
+          <t>558 msec</t>
         </is>
       </c>
       <c r="K6" s="1" t="inlineStr">
         <is>
-          <t>84.23</t>
+          <t>84.23 msec</t>
         </is>
       </c>
       <c r="L6" s="1" t="inlineStr">
@@ -934,17 +934,17 @@
       </c>
       <c r="I7" s="1" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>26 msec</t>
         </is>
       </c>
       <c r="J7" s="1" t="inlineStr">
         <is>
-          <t>979</t>
+          <t>979 msec</t>
         </is>
       </c>
       <c r="K7" s="1" t="inlineStr">
         <is>
-          <t>82.36</t>
+          <t>82.36 msec</t>
         </is>
       </c>
       <c r="L7" s="1" t="inlineStr">
@@ -1011,17 +1011,17 @@
       </c>
       <c r="I8" s="1" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>10 msec</t>
         </is>
       </c>
       <c r="J8" s="1" t="inlineStr">
         <is>
-          <t>928</t>
+          <t>928 msec</t>
         </is>
       </c>
       <c r="K8" s="1" t="inlineStr">
         <is>
-          <t>81.94</t>
+          <t>81.94 msec</t>
         </is>
       </c>
       <c r="L8" s="1" t="inlineStr">
@@ -1088,17 +1088,17 @@
       </c>
       <c r="I9" s="1" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>10 msec</t>
         </is>
       </c>
       <c r="J9" s="1" t="inlineStr">
         <is>
-          <t>1015</t>
+          <t>1015 msec</t>
         </is>
       </c>
       <c r="K9" s="1" t="inlineStr">
         <is>
-          <t>83.54</t>
+          <t>83.54 msec</t>
         </is>
       </c>
       <c r="L9" s="1" t="inlineStr">
@@ -1165,17 +1165,17 @@
       </c>
       <c r="I10" s="1" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>27 msec</t>
         </is>
       </c>
       <c r="J10" s="1" t="inlineStr">
         <is>
-          <t>687</t>
+          <t>687 msec</t>
         </is>
       </c>
       <c r="K10" s="1" t="inlineStr">
         <is>
-          <t>82.49</t>
+          <t>82.49 msec</t>
         </is>
       </c>
       <c r="L10" s="1" t="inlineStr">
@@ -1242,17 +1242,17 @@
       </c>
       <c r="I11" s="1" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>10 msec</t>
         </is>
       </c>
       <c r="J11" s="1" t="inlineStr">
         <is>
-          <t>397</t>
+          <t>397 msec</t>
         </is>
       </c>
       <c r="K11" s="1" t="inlineStr">
         <is>
-          <t>82.54</t>
+          <t>82.54 msec</t>
         </is>
       </c>
       <c r="L11" s="1" t="inlineStr">
@@ -1319,17 +1319,17 @@
       </c>
       <c r="I12" s="1" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>32 msec</t>
         </is>
       </c>
       <c r="J12" s="1" t="inlineStr">
         <is>
-          <t>969</t>
+          <t>969 msec</t>
         </is>
       </c>
       <c r="K12" s="1" t="inlineStr">
         <is>
-          <t>81.98</t>
+          <t>81.98 msec</t>
         </is>
       </c>
       <c r="L12" s="1" t="inlineStr">
@@ -1396,17 +1396,17 @@
       </c>
       <c r="I13" s="1" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>32 msec</t>
         </is>
       </c>
       <c r="J13" s="1" t="inlineStr">
         <is>
-          <t>706</t>
+          <t>706 msec</t>
         </is>
       </c>
       <c r="K13" s="1" t="inlineStr">
         <is>
-          <t>82.26</t>
+          <t>82.26 msec</t>
         </is>
       </c>
       <c r="L13" s="1" t="inlineStr">
@@ -1473,17 +1473,17 @@
       </c>
       <c r="I14" s="1" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>14 msec</t>
         </is>
       </c>
       <c r="J14" s="1" t="inlineStr">
         <is>
-          <t>702</t>
+          <t>702 msec</t>
         </is>
       </c>
       <c r="K14" s="1" t="inlineStr">
         <is>
-          <t>82.50</t>
+          <t>82.50 msec</t>
         </is>
       </c>
       <c r="L14" s="1" t="inlineStr">
@@ -1550,17 +1550,17 @@
       </c>
       <c r="I15" s="1" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>27 msec</t>
         </is>
       </c>
       <c r="J15" s="1" t="inlineStr">
         <is>
-          <t>701</t>
+          <t>701 msec</t>
         </is>
       </c>
       <c r="K15" s="1" t="inlineStr">
         <is>
-          <t>82.02</t>
+          <t>82.02 msec</t>
         </is>
       </c>
       <c r="L15" s="1" t="inlineStr">
@@ -1627,17 +1627,17 @@
       </c>
       <c r="I16" s="1" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>31 msec</t>
         </is>
       </c>
       <c r="J16" s="1" t="inlineStr">
         <is>
-          <t>1680</t>
+          <t>1680 msec</t>
         </is>
       </c>
       <c r="K16" s="1" t="inlineStr">
         <is>
-          <t>82.35</t>
+          <t>82.35 msec</t>
         </is>
       </c>
       <c r="L16" s="1" t="inlineStr">
@@ -1704,17 +1704,17 @@
       </c>
       <c r="I17" s="1" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>28 msec</t>
         </is>
       </c>
       <c r="J17" s="1" t="inlineStr">
         <is>
-          <t>676</t>
+          <t>676 msec</t>
         </is>
       </c>
       <c r="K17" s="1" t="inlineStr">
         <is>
-          <t>82.84</t>
+          <t>82.84 msec</t>
         </is>
       </c>
       <c r="L17" s="1" t="inlineStr">
@@ -1781,17 +1781,17 @@
       </c>
       <c r="I18" s="1" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>14 msec</t>
         </is>
       </c>
       <c r="J18" s="1" t="inlineStr">
         <is>
-          <t>646</t>
+          <t>646 msec</t>
         </is>
       </c>
       <c r="K18" s="1" t="inlineStr">
         <is>
-          <t>81.89</t>
+          <t>81.89 msec</t>
         </is>
       </c>
       <c r="L18" s="1" t="inlineStr">
@@ -1858,17 +1858,17 @@
       </c>
       <c r="I19" s="1" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>27 msec</t>
         </is>
       </c>
       <c r="J19" s="1" t="inlineStr">
         <is>
-          <t>402</t>
+          <t>402 msec</t>
         </is>
       </c>
       <c r="K19" s="1" t="inlineStr">
         <is>
-          <t>82.18</t>
+          <t>82.18 msec</t>
         </is>
       </c>
       <c r="L19" s="1" t="inlineStr">
@@ -1935,17 +1935,17 @@
       </c>
       <c r="I20" s="1" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>28 msec</t>
         </is>
       </c>
       <c r="J20" s="1" t="inlineStr">
         <is>
-          <t>422</t>
+          <t>422 msec</t>
         </is>
       </c>
       <c r="K20" s="1" t="inlineStr">
         <is>
-          <t>81.83</t>
+          <t>81.83 msec</t>
         </is>
       </c>
       <c r="L20" s="1" t="inlineStr">
@@ -2012,17 +2012,17 @@
       </c>
       <c r="I21" s="1" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>11 msec</t>
         </is>
       </c>
       <c r="J21" s="1" t="inlineStr">
         <is>
-          <t>721</t>
+          <t>721 msec</t>
         </is>
       </c>
       <c r="K21" s="1" t="inlineStr">
         <is>
-          <t>81.79</t>
+          <t>81.79 msec</t>
         </is>
       </c>
       <c r="L21" s="1" t="inlineStr">
@@ -2089,17 +2089,17 @@
       </c>
       <c r="I22" s="1" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>10 msec</t>
         </is>
       </c>
       <c r="J22" s="1" t="inlineStr">
         <is>
-          <t>692</t>
+          <t>692 msec</t>
         </is>
       </c>
       <c r="K22" s="1" t="inlineStr">
         <is>
-          <t>82.43</t>
+          <t>82.43 msec</t>
         </is>
       </c>
       <c r="L22" s="1" t="inlineStr">
@@ -2166,17 +2166,17 @@
       </c>
       <c r="I23" s="1" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>31 msec</t>
         </is>
       </c>
       <c r="J23" s="1" t="inlineStr">
         <is>
-          <t>727</t>
+          <t>727 msec</t>
         </is>
       </c>
       <c r="K23" s="1" t="inlineStr">
         <is>
-          <t>82.59</t>
+          <t>82.59 msec</t>
         </is>
       </c>
       <c r="L23" s="1" t="inlineStr">
@@ -2243,17 +2243,17 @@
       </c>
       <c r="I24" s="1" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>36 msec</t>
         </is>
       </c>
       <c r="J24" s="1" t="inlineStr">
         <is>
-          <t>812</t>
+          <t>812 msec</t>
         </is>
       </c>
       <c r="K24" s="1" t="inlineStr">
         <is>
-          <t>82.53</t>
+          <t>82.53 msec</t>
         </is>
       </c>
       <c r="L24" s="1" t="inlineStr">
@@ -2320,17 +2320,17 @@
       </c>
       <c r="I25" s="1" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>33 msec</t>
         </is>
       </c>
       <c r="J25" s="1" t="inlineStr">
         <is>
-          <t>736</t>
+          <t>736 msec</t>
         </is>
       </c>
       <c r="K25" s="1" t="inlineStr">
         <is>
-          <t>82.47</t>
+          <t>82.47 msec</t>
         </is>
       </c>
       <c r="L25" s="1" t="inlineStr">
@@ -2397,17 +2397,17 @@
       </c>
       <c r="I26" s="1" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>25 msec</t>
         </is>
       </c>
       <c r="J26" s="1" t="inlineStr">
         <is>
-          <t>935</t>
+          <t>935 msec</t>
         </is>
       </c>
       <c r="K26" s="1" t="inlineStr">
         <is>
-          <t>82.63</t>
+          <t>82.63 msec</t>
         </is>
       </c>
       <c r="L26" s="1" t="inlineStr">
@@ -2474,17 +2474,17 @@
       </c>
       <c r="I27" s="1" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>30 msec</t>
         </is>
       </c>
       <c r="J27" s="1" t="inlineStr">
         <is>
-          <t>1643</t>
+          <t>1643 msec</t>
         </is>
       </c>
       <c r="K27" s="1" t="inlineStr">
         <is>
-          <t>81.97</t>
+          <t>81.97 msec</t>
         </is>
       </c>
       <c r="L27" s="1" t="inlineStr">
@@ -2551,17 +2551,17 @@
       </c>
       <c r="I28" s="1" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>26 msec</t>
         </is>
       </c>
       <c r="J28" s="1" t="inlineStr">
         <is>
-          <t>20272</t>
+          <t>20272 msec</t>
         </is>
       </c>
       <c r="K28" s="1" t="inlineStr">
         <is>
-          <t>81.93</t>
+          <t>81.93 msec</t>
         </is>
       </c>
       <c r="L28" s="1" t="inlineStr">
@@ -2628,17 +2628,17 @@
       </c>
       <c r="I29" s="1" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>13 msec</t>
         </is>
       </c>
       <c r="J29" s="1" t="inlineStr">
         <is>
-          <t>410</t>
+          <t>410 msec</t>
         </is>
       </c>
       <c r="K29" s="1" t="inlineStr">
         <is>
-          <t>81.60</t>
+          <t>81.60 msec</t>
         </is>
       </c>
       <c r="L29" s="1" t="inlineStr">
@@ -2705,17 +2705,17 @@
       </c>
       <c r="I30" s="1" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>32 msec</t>
         </is>
       </c>
       <c r="J30" s="1" t="inlineStr">
         <is>
-          <t>984</t>
+          <t>984 msec</t>
         </is>
       </c>
       <c r="K30" s="1" t="inlineStr">
         <is>
-          <t>82.17</t>
+          <t>82.17 msec</t>
         </is>
       </c>
       <c r="L30" s="1" t="inlineStr">
@@ -2782,17 +2782,17 @@
       </c>
       <c r="I31" s="1" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>29 msec</t>
         </is>
       </c>
       <c r="J31" s="1" t="inlineStr">
         <is>
-          <t>932</t>
+          <t>932 msec</t>
         </is>
       </c>
       <c r="K31" s="1" t="inlineStr">
         <is>
-          <t>82.82</t>
+          <t>82.82 msec</t>
         </is>
       </c>
       <c r="L31" s="1" t="inlineStr">
@@ -2859,17 +2859,17 @@
       </c>
       <c r="I32" s="1" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>27 msec</t>
         </is>
       </c>
       <c r="J32" s="1" t="inlineStr">
         <is>
-          <t>1009</t>
+          <t>1009 msec</t>
         </is>
       </c>
       <c r="K32" s="1" t="inlineStr">
         <is>
-          <t>81.86</t>
+          <t>81.86 msec</t>
         </is>
       </c>
       <c r="L32" s="1" t="inlineStr">
@@ -2936,17 +2936,17 @@
       </c>
       <c r="I33" s="1" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>19 msec</t>
         </is>
       </c>
       <c r="J33" s="1" t="inlineStr">
         <is>
-          <t>403</t>
+          <t>403 msec</t>
         </is>
       </c>
       <c r="K33" s="1" t="inlineStr">
         <is>
-          <t>81.73</t>
+          <t>81.73 msec</t>
         </is>
       </c>
       <c r="L33" s="1" t="inlineStr">
@@ -3013,17 +3013,17 @@
       </c>
       <c r="I34" s="1" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>14 msec</t>
         </is>
       </c>
       <c r="J34" s="1" t="inlineStr">
         <is>
-          <t>599</t>
+          <t>599 msec</t>
         </is>
       </c>
       <c r="K34" s="1" t="inlineStr">
         <is>
-          <t>83.28</t>
+          <t>83.28 msec</t>
         </is>
       </c>
       <c r="L34" s="1" t="inlineStr">
@@ -3090,17 +3090,17 @@
       </c>
       <c r="I35" s="1" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>28 msec</t>
         </is>
       </c>
       <c r="J35" s="1" t="inlineStr">
         <is>
-          <t>1038</t>
+          <t>1038 msec</t>
         </is>
       </c>
       <c r="K35" s="1" t="inlineStr">
         <is>
-          <t>83.03</t>
+          <t>83.03 msec</t>
         </is>
       </c>
       <c r="L35" s="1" t="inlineStr">
@@ -3167,17 +3167,17 @@
       </c>
       <c r="I36" s="1" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>31 msec</t>
         </is>
       </c>
       <c r="J36" s="1" t="inlineStr">
         <is>
-          <t>858</t>
+          <t>858 msec</t>
         </is>
       </c>
       <c r="K36" s="1" t="inlineStr">
         <is>
-          <t>81.85</t>
+          <t>81.85 msec</t>
         </is>
       </c>
       <c r="L36" s="1" t="inlineStr">
@@ -3244,17 +3244,17 @@
       </c>
       <c r="I37" s="1" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>37 msec</t>
         </is>
       </c>
       <c r="J37" s="1" t="inlineStr">
         <is>
-          <t>595</t>
+          <t>595 msec</t>
         </is>
       </c>
       <c r="K37" s="1" t="inlineStr">
         <is>
-          <t>81.93</t>
+          <t>81.93 msec</t>
         </is>
       </c>
       <c r="L37" s="1" t="inlineStr">
@@ -3321,17 +3321,17 @@
       </c>
       <c r="I38" s="1" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>31 msec</t>
         </is>
       </c>
       <c r="J38" s="1" t="inlineStr">
         <is>
-          <t>1165</t>
+          <t>1165 msec</t>
         </is>
       </c>
       <c r="K38" s="1" t="inlineStr">
         <is>
-          <t>82.04</t>
+          <t>82.04 msec</t>
         </is>
       </c>
       <c r="L38" s="1" t="inlineStr">
